--- a/resultados/vazao_transferencias/vazao_ribeirao.xlsx
+++ b/resultados/vazao_transferencias/vazao_ribeirao.xlsx
@@ -412,7 +412,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Vazão captada da ETA</t>
+          <t>Vazão captada da ETA (m³/s)</t>
         </is>
       </c>
     </row>
@@ -9518,7 +9518,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2">
-        <v>45717</v>
+        <v>45747</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -9562,7 +9562,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0,04</t>
         </is>
       </c>
     </row>

--- a/resultados/vazao_transferencias/vazao_ribeirao.xlsx
+++ b/resultados/vazao_transferencias/vazao_ribeirao.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd HH:mm:ss UTC"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J184"/>
+  <dimension ref="A1:J187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,7 +418,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>40209</v>
+        <v>45777</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -462,13 +462,13 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,03</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>40237</v>
+        <v>45808</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -512,13 +512,13 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,03</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>40268</v>
+        <v>45838</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -562,13 +562,13 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>40298</v>
+        <v>40209</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -612,13 +612,13 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>40329</v>
+        <v>40237</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>40359</v>
+        <v>40268</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -718,7 +718,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>40390</v>
+        <v>40298</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -762,13 +762,13 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,09</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>40421</v>
+        <v>40329</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>40451</v>
+        <v>40359</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -862,13 +862,13 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,1</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <v>40482</v>
+        <v>40390</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -912,13 +912,13 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,02</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
-        <v>40512</v>
+        <v>40421</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -962,13 +962,13 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,1</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
-        <v>40543</v>
+        <v>40451</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2">
-        <v>40574</v>
+        <v>40482</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1062,13 +1062,13 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,1</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
-        <v>40602</v>
+        <v>40512</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2">
-        <v>40633</v>
+        <v>40543</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1162,13 +1162,13 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,09</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2">
-        <v>40663</v>
+        <v>40574</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1212,13 +1212,13 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
-        <v>40694</v>
+        <v>40602</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2">
-        <v>40724</v>
+        <v>40633</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1312,13 +1312,13 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,06</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2">
-        <v>40755</v>
+        <v>40663</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1362,13 +1362,13 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,07</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2">
-        <v>40786</v>
+        <v>40694</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1412,13 +1412,13 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2">
-        <v>40816</v>
+        <v>40724</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2">
-        <v>40847</v>
+        <v>40755</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2">
-        <v>40877</v>
+        <v>40786</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2">
-        <v>40908</v>
+        <v>40816</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2">
-        <v>40939</v>
+        <v>40847</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2">
-        <v>40968</v>
+        <v>40877</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2">
-        <v>40999</v>
+        <v>40908</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2">
-        <v>41029</v>
+        <v>40939</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1812,13 +1812,13 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,09</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2">
-        <v>41060</v>
+        <v>40968</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2">
-        <v>41090</v>
+        <v>40999</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1912,13 +1912,13 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,09</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2">
-        <v>41121</v>
+        <v>41029</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1962,13 +1962,13 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,05</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2">
-        <v>41152</v>
+        <v>41060</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2">
-        <v>41182</v>
+        <v>41090</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2062,13 +2062,13 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,05</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2">
-        <v>41213</v>
+        <v>41121</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2112,13 +2112,13 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,06</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2">
-        <v>41243</v>
+        <v>41152</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2162,13 +2162,13 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,09</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2">
-        <v>41274</v>
+        <v>41182</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2">
-        <v>41305</v>
+        <v>41213</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2262,13 +2262,13 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,1</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2">
-        <v>41333</v>
+        <v>41243</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2312,13 +2312,13 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,1</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2">
-        <v>41364</v>
+        <v>41274</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2">
-        <v>41394</v>
+        <v>41305</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2412,13 +2412,13 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,09</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2">
-        <v>41425</v>
+        <v>41333</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2462,13 +2462,13 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,09</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2">
-        <v>41455</v>
+        <v>41364</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2">
-        <v>41486</v>
+        <v>41394</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2">
-        <v>41517</v>
+        <v>41425</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2">
-        <v>41547</v>
+        <v>41455</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2">
-        <v>41578</v>
+        <v>41486</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2">
-        <v>41608</v>
+        <v>41517</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2">
-        <v>41639</v>
+        <v>41547</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2">
-        <v>41670</v>
+        <v>41578</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2">
-        <v>41698</v>
+        <v>41608</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2">
-        <v>41729</v>
+        <v>41639</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2962,13 +2962,13 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,1</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2">
-        <v>41759</v>
+        <v>41670</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -3012,13 +3012,13 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,1</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2">
-        <v>41790</v>
+        <v>41698</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2">
-        <v>41820</v>
+        <v>41729</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -3112,13 +3112,13 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,09</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2">
-        <v>41851</v>
+        <v>41759</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -3162,13 +3162,13 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,07</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2">
-        <v>41882</v>
+        <v>41790</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -3212,13 +3212,13 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,1</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2">
-        <v>41912</v>
+        <v>41820</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -3262,13 +3262,13 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,1</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2">
-        <v>41943</v>
+        <v>41851</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -3312,13 +3312,13 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,09</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2">
-        <v>41973</v>
+        <v>41882</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2">
-        <v>42004</v>
+        <v>41912</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -3412,13 +3412,13 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2">
-        <v>42035</v>
+        <v>41943</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -3462,13 +3462,13 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2">
-        <v>42063</v>
+        <v>41973</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -3512,13 +3512,13 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2">
-        <v>42094</v>
+        <v>42004</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -3562,13 +3562,13 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,09</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2">
-        <v>42124</v>
+        <v>42035</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -3612,13 +3612,13 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,07</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2">
-        <v>42155</v>
+        <v>42063</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -3662,13 +3662,13 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,07</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2">
-        <v>42185</v>
+        <v>42094</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -3712,13 +3712,13 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2">
-        <v>42216</v>
+        <v>42124</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2">
-        <v>42247</v>
+        <v>42155</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -3812,13 +3812,13 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,09</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2">
-        <v>42277</v>
+        <v>42185</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -3862,13 +3862,13 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,09</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2">
-        <v>42308</v>
+        <v>42216</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2">
-        <v>42338</v>
+        <v>42247</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2">
-        <v>42369</v>
+        <v>42277</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2">
-        <v>42400</v>
+        <v>42308</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -4068,7 +4068,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2">
-        <v>42429</v>
+        <v>42338</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2">
-        <v>42460</v>
+        <v>42369</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2">
-        <v>42490</v>
+        <v>42400</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2">
-        <v>42521</v>
+        <v>42429</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2">
-        <v>42551</v>
+        <v>42460</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2">
-        <v>42582</v>
+        <v>42490</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2">
-        <v>42613</v>
+        <v>42521</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2">
-        <v>42643</v>
+        <v>42551</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2">
-        <v>42674</v>
+        <v>42582</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2">
-        <v>42704</v>
+        <v>42613</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2">
-        <v>42735</v>
+        <v>42643</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2">
-        <v>42766</v>
+        <v>42674</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2">
-        <v>42794</v>
+        <v>42704</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2">
-        <v>42825</v>
+        <v>42735</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2">
-        <v>42855</v>
+        <v>42766</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2">
-        <v>42886</v>
+        <v>42794</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2">
-        <v>42916</v>
+        <v>42825</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2">
-        <v>42947</v>
+        <v>42855</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2">
-        <v>42978</v>
+        <v>42886</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -5012,13 +5012,13 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2">
-        <v>43008</v>
+        <v>42916</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2">
-        <v>43039</v>
+        <v>42947</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2">
-        <v>43069</v>
+        <v>42978</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -5162,13 +5162,13 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,05</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2">
-        <v>43100</v>
+        <v>43008</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -5212,13 +5212,13 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2">
-        <v>43131</v>
+        <v>43039</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2">
-        <v>43159</v>
+        <v>43069</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -5312,13 +5312,13 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2">
-        <v>43190</v>
+        <v>43100</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2">
-        <v>43220</v>
+        <v>43131</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2">
-        <v>43251</v>
+        <v>43159</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -5462,13 +5462,13 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,07</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2">
-        <v>43281</v>
+        <v>43190</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -5512,13 +5512,13 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,07</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2">
-        <v>43312</v>
+        <v>43220</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2">
-        <v>43343</v>
+        <v>43251</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -5612,13 +5612,13 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2">
-        <v>43373</v>
+        <v>43281</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2">
-        <v>43404</v>
+        <v>43312</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2">
-        <v>43434</v>
+        <v>43343</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -5762,13 +5762,13 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,09</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2">
-        <v>43465</v>
+        <v>43373</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2">
-        <v>43496</v>
+        <v>43404</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -5862,13 +5862,13 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2">
-        <v>43524</v>
+        <v>43434</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2">
-        <v>43555</v>
+        <v>43465</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2">
-        <v>43585</v>
+        <v>43496</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -6012,13 +6012,13 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,05</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2">
-        <v>43616</v>
+        <v>43524</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2">
-        <v>43646</v>
+        <v>43555</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2">
-        <v>43677</v>
+        <v>43585</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -6162,13 +6162,13 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2">
-        <v>43708</v>
+        <v>43616</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2">
-        <v>43738</v>
+        <v>43646</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2">
-        <v>43769</v>
+        <v>43677</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -6312,13 +6312,13 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,07</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2">
-        <v>43799</v>
+        <v>43708</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -6362,13 +6362,13 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2">
-        <v>43830</v>
+        <v>43738</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2">
-        <v>43861</v>
+        <v>43769</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -6462,13 +6462,13 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,09</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2">
-        <v>43890</v>
+        <v>43799</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -6512,13 +6512,13 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,09</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2">
-        <v>43921</v>
+        <v>43830</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -6562,13 +6562,13 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2">
-        <v>43951</v>
+        <v>43861</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -6612,13 +6612,13 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2">
-        <v>43982</v>
+        <v>43890</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -6668,7 +6668,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2">
-        <v>44012</v>
+        <v>43921</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -6712,13 +6712,13 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,07</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2">
-        <v>44043</v>
+        <v>43951</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -6762,13 +6762,13 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,06</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2">
-        <v>44074</v>
+        <v>43982</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -6812,13 +6812,13 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2">
-        <v>44104</v>
+        <v>44012</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -6862,13 +6862,13 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2">
-        <v>44135</v>
+        <v>44043</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -6912,13 +6912,13 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2">
-        <v>44165</v>
+        <v>44074</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2">
-        <v>44196</v>
+        <v>44104</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2">
-        <v>44227</v>
+        <v>44135</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -7062,13 +7062,13 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,06</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2">
-        <v>44255</v>
+        <v>44165</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2">
-        <v>44286</v>
+        <v>44196</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2">
-        <v>44316</v>
+        <v>44227</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -7212,13 +7212,13 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2">
-        <v>44347</v>
+        <v>44255</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2">
-        <v>44377</v>
+        <v>44286</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2">
-        <v>44408</v>
+        <v>44316</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2">
-        <v>44439</v>
+        <v>44347</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2">
-        <v>44469</v>
+        <v>44377</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2">
-        <v>44500</v>
+        <v>44408</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2">
-        <v>44530</v>
+        <v>44439</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2">
-        <v>44561</v>
+        <v>44469</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2">
-        <v>44592</v>
+        <v>44500</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -7662,13 +7662,13 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,07</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2">
-        <v>44620</v>
+        <v>44530</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2">
-        <v>44651</v>
+        <v>44561</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2">
-        <v>44681</v>
+        <v>44592</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2">
-        <v>44712</v>
+        <v>44620</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -7862,13 +7862,13 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,07</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2">
-        <v>44742</v>
+        <v>44651</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2">
-        <v>44773</v>
+        <v>44681</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -7962,13 +7962,13 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2">
-        <v>44804</v>
+        <v>44712</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -8012,13 +8012,13 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,05</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2">
-        <v>44834</v>
+        <v>44742</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2">
-        <v>44865</v>
+        <v>44773</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -8112,13 +8112,13 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,07</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2">
-        <v>44895</v>
+        <v>44804</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -8162,13 +8162,13 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,07</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2">
-        <v>44926</v>
+        <v>44834</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -8218,7 +8218,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2">
-        <v>44957</v>
+        <v>44865</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -8262,13 +8262,13 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2">
-        <v>44985</v>
+        <v>44895</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -8312,13 +8312,13 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2">
-        <v>45016</v>
+        <v>44926</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2">
-        <v>45046</v>
+        <v>44957</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -8412,13 +8412,13 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,07</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2">
-        <v>45077</v>
+        <v>44985</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2">
-        <v>45107</v>
+        <v>45016</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2">
-        <v>45138</v>
+        <v>45046</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -8562,13 +8562,13 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2">
-        <v>45169</v>
+        <v>45077</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2">
-        <v>45199</v>
+        <v>45107</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2">
-        <v>45230</v>
+        <v>45138</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -8718,7 +8718,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2">
-        <v>45260</v>
+        <v>45169</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -8768,7 +8768,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2">
-        <v>45291</v>
+        <v>45199</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -8812,13 +8812,13 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,07</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2">
-        <v>45322</v>
+        <v>45230</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -8862,13 +8862,13 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,07</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2">
-        <v>45351</v>
+        <v>45260</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -8912,13 +8912,13 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,07</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2">
-        <v>45382</v>
+        <v>45291</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2">
-        <v>45412</v>
+        <v>45322</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -9012,13 +9012,13 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2">
-        <v>45443</v>
+        <v>45351</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -9062,13 +9062,13 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2">
-        <v>45473</v>
+        <v>45382</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -9112,13 +9112,13 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2">
-        <v>45504</v>
+        <v>45412</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -9162,13 +9162,13 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0,05</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2">
-        <v>45535</v>
+        <v>45443</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -9212,13 +9212,13 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,09</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2">
-        <v>45565</v>
+        <v>45473</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -9262,13 +9262,13 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,09</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2">
-        <v>45596</v>
+        <v>45504</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -9312,13 +9312,13 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2">
-        <v>45626</v>
+        <v>45535</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -9362,13 +9362,13 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,06</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2">
-        <v>45657</v>
+        <v>45565</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -9412,13 +9412,13 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,04</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2">
-        <v>45688</v>
+        <v>45596</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2">
-        <v>45716</v>
+        <v>45626</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -9512,55 +9512,205 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,04</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2">
+        <v>45657</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Ribeirão da Estiva</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2">
+        <v>45688</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Ribeirão da Estiva</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2">
+        <v>45716</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Ribeirão da Estiva</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2">
         <v>45747</v>
       </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Ribeirão da Estiva</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J184" t="inlineStr">
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Ribeirão da Estiva</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
         <is>
           <t>0,04</t>
         </is>

--- a/resultados/vazao_transferencias/vazao_ribeirao.xlsx
+++ b/resultados/vazao_transferencias/vazao_ribeirao.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J187"/>
+  <dimension ref="A1:J188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,7 +418,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45777</v>
+        <v>45868</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -468,7 +468,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45808</v>
+        <v>45777</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -518,7 +518,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>45838</v>
+        <v>45808</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -562,13 +562,13 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0,03</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>40209</v>
+        <v>45838</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -612,13 +612,13 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>40237</v>
+        <v>40209</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>40268</v>
+        <v>40237</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -718,7 +718,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>40298</v>
+        <v>40268</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -762,13 +762,13 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>40329</v>
+        <v>40298</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -812,13 +812,13 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,09</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>40359</v>
+        <v>40329</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <v>40390</v>
+        <v>40359</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -912,13 +912,13 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
-        <v>40421</v>
+        <v>40390</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -962,13 +962,13 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,02</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
-        <v>40451</v>
+        <v>40421</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1012,13 +1012,13 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,1</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2">
-        <v>40482</v>
+        <v>40451</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1062,13 +1062,13 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,09</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
-        <v>40512</v>
+        <v>40482</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1112,13 +1112,13 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,1</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
-        <v>40543</v>
+        <v>40512</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1162,13 +1162,13 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2">
-        <v>40574</v>
+        <v>40543</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1212,13 +1212,13 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,09</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
-        <v>40602</v>
+        <v>40574</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2">
-        <v>40633</v>
+        <v>40602</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1312,13 +1312,13 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2">
-        <v>40663</v>
+        <v>40633</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1362,13 +1362,13 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,06</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2">
-        <v>40694</v>
+        <v>40663</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1412,13 +1412,13 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,07</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2">
-        <v>40724</v>
+        <v>40694</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1462,13 +1462,13 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2">
-        <v>40755</v>
+        <v>40724</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2">
-        <v>40786</v>
+        <v>40755</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2">
-        <v>40816</v>
+        <v>40786</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2">
-        <v>40847</v>
+        <v>40816</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2">
-        <v>40877</v>
+        <v>40847</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2">
-        <v>40908</v>
+        <v>40877</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2">
-        <v>40939</v>
+        <v>40908</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2">
-        <v>40968</v>
+        <v>40939</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2">
-        <v>40999</v>
+        <v>40968</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2">
-        <v>41029</v>
+        <v>40999</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1962,13 +1962,13 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,09</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2">
-        <v>41060</v>
+        <v>41029</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2012,13 +2012,13 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,05</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2">
-        <v>41090</v>
+        <v>41060</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2062,13 +2062,13 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,09</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2">
-        <v>41121</v>
+        <v>41090</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2112,13 +2112,13 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,05</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2">
-        <v>41152</v>
+        <v>41121</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2162,13 +2162,13 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,06</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2">
-        <v>41182</v>
+        <v>41152</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2212,13 +2212,13 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,09</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2">
-        <v>41213</v>
+        <v>41182</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2">
-        <v>41243</v>
+        <v>41213</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2">
-        <v>41274</v>
+        <v>41243</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2">
-        <v>41305</v>
+        <v>41274</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2412,13 +2412,13 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,1</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2">
-        <v>41333</v>
+        <v>41305</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2">
-        <v>41364</v>
+        <v>41333</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2512,13 +2512,13 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,09</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2">
-        <v>41394</v>
+        <v>41364</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2">
-        <v>41425</v>
+        <v>41394</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2">
-        <v>41455</v>
+        <v>41425</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2">
-        <v>41486</v>
+        <v>41455</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2">
-        <v>41517</v>
+        <v>41486</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2">
-        <v>41547</v>
+        <v>41517</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2">
-        <v>41578</v>
+        <v>41547</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2">
-        <v>41608</v>
+        <v>41578</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2">
-        <v>41639</v>
+        <v>41608</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2">
-        <v>41670</v>
+        <v>41639</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2">
-        <v>41698</v>
+        <v>41670</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2">
-        <v>41729</v>
+        <v>41698</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -3112,13 +3112,13 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,1</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2">
-        <v>41759</v>
+        <v>41729</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -3162,13 +3162,13 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,09</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2">
-        <v>41790</v>
+        <v>41759</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -3212,13 +3212,13 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,07</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2">
-        <v>41820</v>
+        <v>41790</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2">
-        <v>41851</v>
+        <v>41820</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -3312,13 +3312,13 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,1</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2">
-        <v>41882</v>
+        <v>41851</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -3362,13 +3362,13 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,09</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2">
-        <v>41912</v>
+        <v>41882</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2">
-        <v>41943</v>
+        <v>41912</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2">
-        <v>41973</v>
+        <v>41943</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2">
-        <v>42004</v>
+        <v>41973</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -3562,13 +3562,13 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2">
-        <v>42035</v>
+        <v>42004</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -3612,13 +3612,13 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,09</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2">
-        <v>42063</v>
+        <v>42035</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2">
-        <v>42094</v>
+        <v>42063</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -3712,13 +3712,13 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,07</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2">
-        <v>42124</v>
+        <v>42094</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2">
-        <v>42155</v>
+        <v>42124</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -3812,13 +3812,13 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2">
-        <v>42185</v>
+        <v>42155</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2">
-        <v>42216</v>
+        <v>42185</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -3912,13 +3912,13 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,09</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2">
-        <v>42247</v>
+        <v>42216</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2">
-        <v>42277</v>
+        <v>42247</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2">
-        <v>42308</v>
+        <v>42277</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -4068,7 +4068,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2">
-        <v>42338</v>
+        <v>42308</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2">
-        <v>42369</v>
+        <v>42338</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2">
-        <v>42400</v>
+        <v>42369</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2">
-        <v>42429</v>
+        <v>42400</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2">
-        <v>42460</v>
+        <v>42429</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2">
-        <v>42490</v>
+        <v>42460</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2">
-        <v>42521</v>
+        <v>42490</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2">
-        <v>42551</v>
+        <v>42521</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2">
-        <v>42582</v>
+        <v>42551</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2">
-        <v>42613</v>
+        <v>42582</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2">
-        <v>42643</v>
+        <v>42613</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2">
-        <v>42674</v>
+        <v>42643</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2">
-        <v>42704</v>
+        <v>42674</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2">
-        <v>42735</v>
+        <v>42704</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2">
-        <v>42766</v>
+        <v>42735</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2">
-        <v>42794</v>
+        <v>42766</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2">
-        <v>42825</v>
+        <v>42794</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2">
-        <v>42855</v>
+        <v>42825</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2">
-        <v>42886</v>
+        <v>42855</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2">
-        <v>42916</v>
+        <v>42886</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2">
-        <v>42947</v>
+        <v>42916</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2">
-        <v>42978</v>
+        <v>42947</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -5162,13 +5162,13 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2">
-        <v>43008</v>
+        <v>42978</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -5212,13 +5212,13 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,05</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2">
-        <v>43039</v>
+        <v>43008</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2">
-        <v>43069</v>
+        <v>43039</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2">
-        <v>43100</v>
+        <v>43069</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -5362,13 +5362,13 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2">
-        <v>43131</v>
+        <v>43100</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -5412,13 +5412,13 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,07</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2">
-        <v>43159</v>
+        <v>43131</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -5462,13 +5462,13 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2">
-        <v>43190</v>
+        <v>43159</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2">
-        <v>43220</v>
+        <v>43190</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -5562,13 +5562,13 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,07</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2">
-        <v>43251</v>
+        <v>43220</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2">
-        <v>43281</v>
+        <v>43251</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2">
-        <v>43312</v>
+        <v>43281</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2">
-        <v>43343</v>
+        <v>43312</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -5762,13 +5762,13 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2">
-        <v>43373</v>
+        <v>43343</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -5812,13 +5812,13 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,09</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2">
-        <v>43404</v>
+        <v>43373</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -5868,7 +5868,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2">
-        <v>43434</v>
+        <v>43404</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2">
-        <v>43465</v>
+        <v>43434</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2">
-        <v>43496</v>
+        <v>43465</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -6012,13 +6012,13 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -6062,13 +6062,13 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,05</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2">
-        <v>43646</v>
+        <v>43616</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2">
-        <v>43677</v>
+        <v>43646</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -6312,13 +6312,13 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2">
-        <v>43708</v>
+        <v>43677</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -6362,13 +6362,13 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,07</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2">
-        <v>43738</v>
+        <v>43708</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2">
-        <v>43769</v>
+        <v>43738</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -6462,13 +6462,13 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2">
-        <v>43799</v>
+        <v>43769</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2">
-        <v>43830</v>
+        <v>43799</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -6562,13 +6562,13 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,09</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2">
-        <v>43861</v>
+        <v>43830</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2">
-        <v>43890</v>
+        <v>43861</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -6668,7 +6668,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2">
-        <v>43921</v>
+        <v>43890</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -6712,13 +6712,13 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2">
-        <v>43951</v>
+        <v>43921</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -6762,13 +6762,13 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,07</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2">
-        <v>43982</v>
+        <v>43951</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -6812,13 +6812,13 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,06</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2">
-        <v>44012</v>
+        <v>43982</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2">
-        <v>44043</v>
+        <v>44012</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2">
-        <v>44074</v>
+        <v>44043</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -6962,13 +6962,13 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2">
-        <v>44104</v>
+        <v>44074</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2">
-        <v>44135</v>
+        <v>44104</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -7062,13 +7062,13 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,07</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2">
-        <v>44165</v>
+        <v>44135</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -7112,13 +7112,13 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,06</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2">
-        <v>44196</v>
+        <v>44165</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2">
-        <v>44227</v>
+        <v>44196</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -7212,13 +7212,13 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,07</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2">
-        <v>44255</v>
+        <v>44227</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -7262,13 +7262,13 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2">
-        <v>44286</v>
+        <v>44255</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2">
-        <v>44316</v>
+        <v>44286</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2">
-        <v>44347</v>
+        <v>44316</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2">
-        <v>44377</v>
+        <v>44347</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2">
-        <v>44408</v>
+        <v>44377</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2">
-        <v>44439</v>
+        <v>44408</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2">
-        <v>44469</v>
+        <v>44439</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2">
-        <v>44500</v>
+        <v>44469</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2">
-        <v>44530</v>
+        <v>44500</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2">
-        <v>44561</v>
+        <v>44530</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2">
-        <v>44592</v>
+        <v>44561</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -7812,13 +7812,13 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,07</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2">
-        <v>44620</v>
+        <v>44592</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -7862,13 +7862,13 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2">
-        <v>44651</v>
+        <v>44620</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2">
-        <v>44681</v>
+        <v>44651</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -7962,13 +7962,13 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,07</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2">
-        <v>44712</v>
+        <v>44681</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -8012,13 +8012,13 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2">
-        <v>44742</v>
+        <v>44712</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -8062,13 +8062,13 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,05</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2">
-        <v>44773</v>
+        <v>44742</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2">
-        <v>44804</v>
+        <v>44773</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2">
-        <v>44834</v>
+        <v>44804</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -8218,7 +8218,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2">
-        <v>44865</v>
+        <v>44834</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -8262,13 +8262,13 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,07</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2">
-        <v>44895</v>
+        <v>44865</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2">
-        <v>44926</v>
+        <v>44895</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -8362,13 +8362,13 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2">
-        <v>44957</v>
+        <v>44926</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2">
-        <v>44985</v>
+        <v>44957</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2">
-        <v>45016</v>
+        <v>44985</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2">
-        <v>45046</v>
+        <v>45016</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -8562,13 +8562,13 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,07</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -8612,13 +8612,13 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2">
-        <v>45107</v>
+        <v>45077</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2">
-        <v>45138</v>
+        <v>45107</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -8718,7 +8718,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2">
-        <v>45169</v>
+        <v>45138</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -8768,7 +8768,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2">
-        <v>45199</v>
+        <v>45169</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -8818,7 +8818,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2">
-        <v>45230</v>
+        <v>45199</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -8868,7 +8868,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2">
-        <v>45260</v>
+        <v>45230</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2">
-        <v>45291</v>
+        <v>45260</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -8962,13 +8962,13 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,07</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2">
-        <v>45322</v>
+        <v>45291</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -9018,7 +9018,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2">
-        <v>45351</v>
+        <v>45322</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -9162,13 +9162,13 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -9212,13 +9212,13 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,05</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -9312,13 +9312,13 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0,09</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -9362,13 +9362,13 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -9412,13 +9412,13 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,06</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -9462,13 +9462,13 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,04</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -9512,13 +9512,13 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,05</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -9562,13 +9562,13 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,04</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2">
-        <v>45688</v>
+        <v>45657</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -9612,13 +9612,13 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,02</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2">
-        <v>45716</v>
+        <v>45688</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -9662,55 +9662,105 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,05</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2">
+        <v>45716</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Ribeirão da Estiva</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2">
         <v>45747</v>
       </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>Ribeirão da Estiva</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J187" t="inlineStr">
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Ribeirão da Estiva</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
         <is>
           <t>0,04</t>
         </is>
